--- a/PageObjectExtended/src/test/resources/testData/master.xlsx
+++ b/PageObjectExtended/src/test/resources/testData/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>LoginTest</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>TestCases</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -444,7 +441,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,7 +486,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>

--- a/PageObjectExtended/src/test/resources/testData/master.xlsx
+++ b/PageObjectExtended/src/test/resources/testData/master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>LoginTest</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>vfgg</t>
-  </si>
-  <si>
-    <t>SS@gmail.com</t>
-  </si>
-  <si>
-    <t>dee</t>
   </si>
   <si>
     <t>username</t>
@@ -406,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -417,7 +411,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -438,10 +432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -496,27 +490,12 @@
       </c>
       <c r="D4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PageObjectExtended/src/test/resources/testData/master.xlsx
+++ b/PageObjectExtended/src/test/resources/testData/master.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>LoginTest</t>
   </si>
@@ -32,28 +32,31 @@
     <t>browser</t>
   </si>
   <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>sddd</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
     <t>firefox</t>
   </si>
   <si>
-    <t>ddd@gmail.com</t>
-  </si>
-  <si>
-    <t>vfgg</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>TestCases</t>
+  </si>
+  <si>
+    <t>ValidateCRMTest</t>
+  </si>
+  <si>
+    <t>123seleum#</t>
+  </si>
+  <si>
+    <t>44elenum#</t>
+  </si>
+  <si>
+    <t>chrome@gmail.com</t>
+  </si>
+  <si>
+    <t>firefox@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -398,20 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -422,6 +425,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -432,17 +443,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -455,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -469,13 +480,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -483,13 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
